--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -540,40 +540,40 @@
         <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>6.721210142161778</v>
+        <v>0.77274741664</v>
       </c>
       <c r="R2">
-        <v>60.49089127945599</v>
+        <v>6.954726749760001</v>
       </c>
       <c r="S2">
-        <v>0.181602290681696</v>
+        <v>0.02540158717377061</v>
       </c>
       <c r="T2">
-        <v>0.181602290681696</v>
+        <v>0.02540158717377061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,13 +617,13 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
         <v>25.72721867393066</v>
@@ -632,10 +632,10 @@
         <v>231.544968065376</v>
       </c>
       <c r="S3">
-        <v>0.6951310471230103</v>
+        <v>0.8456996087105143</v>
       </c>
       <c r="T3">
-        <v>0.6951310471230104</v>
+        <v>0.8456996087105144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>2.659202158684445</v>
+        <v>2.008936334304</v>
       </c>
       <c r="R4">
-        <v>23.93281942816</v>
+        <v>18.080427008736</v>
       </c>
       <c r="S4">
-        <v>0.0718497403277861</v>
+        <v>0.06603732387002165</v>
       </c>
       <c r="T4">
-        <v>0.07184974032778611</v>
+        <v>0.06603732387002165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H5">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I5">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J5">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.3643159410085555</v>
+        <v>0.05183443583</v>
       </c>
       <c r="R5">
-        <v>3.278843469077</v>
+        <v>0.4665099224700001</v>
       </c>
       <c r="S5">
-        <v>0.00984355614831762</v>
+        <v>0.001703890445941619</v>
       </c>
       <c r="T5">
-        <v>0.009843556148317622</v>
+        <v>0.001703890445941619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H6">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I6">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J6">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>1.394516118746333</v>
+        <v>1.725733191366333</v>
       </c>
       <c r="R6">
-        <v>12.550645068717</v>
+        <v>15.531598722297</v>
       </c>
       <c r="S6">
-        <v>0.03767882809797535</v>
+        <v>0.05672793095804464</v>
       </c>
       <c r="T6">
-        <v>0.03767882809797535</v>
+        <v>0.05672793095804463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H7">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I7">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J7">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.1441391827188889</v>
+        <v>0.134755651413</v>
       </c>
       <c r="R7">
-        <v>1.29725264447</v>
+        <v>1.212800862717</v>
       </c>
       <c r="S7">
-        <v>0.003894537621214538</v>
+        <v>0.00442965884170693</v>
       </c>
       <c r="T7">
-        <v>0.003894537621214538</v>
+        <v>0.004429658841706929</v>
       </c>
     </row>
   </sheetData>
